--- a/data-raw/davies.pasture.uniformity.xlsx
+++ b/data-raw/davies.pasture.uniformity.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\x\rpack\agridat\data-raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drop\rpack\agridat\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4094EB0D-DB74-46B3-BE70-EDD635D3864B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="0" windowWidth="10632" windowHeight="8988" activeTab="1"/>
+    <workbookView xWindow="40965" yWindow="2955" windowWidth="11385" windowHeight="12195" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="2" r:id="rId1"/>
@@ -24,12 +25,8 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -927,7 +924,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="75" workbookViewId="0" zoomToFit="1"/>
@@ -971,9 +968,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1011,7 +1008,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1117,7 +1114,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1259,23 +1256,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="I21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>169.4</v>
       </c>
@@ -1334,7 +1331,7 @@
         <v>444.3</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>161.6</v>
       </c>
@@ -1393,7 +1390,7 @@
         <v>298.5</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>273.10000000000002</v>
       </c>
@@ -1452,7 +1449,7 @@
         <v>388.2</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>220.2</v>
       </c>
@@ -1511,7 +1508,7 @@
         <v>467.3</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>266.7</v>
       </c>
@@ -1570,7 +1567,7 @@
         <v>359.9</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>269.10000000000002</v>
       </c>
@@ -1629,7 +1626,7 @@
         <v>391.2</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>315.89999999999998</v>
       </c>
@@ -1688,7 +1685,7 @@
         <v>450.2</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>271.10000000000002</v>
       </c>
@@ -1747,7 +1744,7 @@
         <v>381.6</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>300.39999999999998</v>
       </c>
@@ -1806,7 +1803,7 @@
         <v>526.9</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>276.2</v>
       </c>
@@ -1865,7 +1862,7 @@
         <v>448.2</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>437.6</v>
       </c>
@@ -1924,7 +1921,7 @@
         <v>418.8</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>348</v>
       </c>
@@ -1983,7 +1980,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>348.4</v>
       </c>
@@ -2042,7 +2039,7 @@
         <v>259.2</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>334.3</v>
       </c>
@@ -2101,7 +2098,7 @@
         <v>288.60000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>288.39999999999998</v>
       </c>
@@ -2160,7 +2157,7 @@
         <v>319.31</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>272.7</v>
       </c>
@@ -2219,7 +2216,7 @@
         <v>364.6</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>279.7</v>
       </c>
@@ -2278,7 +2275,7 @@
         <v>277.10000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>235.9</v>
       </c>
@@ -2337,7 +2334,7 @@
         <v>320.7</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>192.2</v>
       </c>
@@ -2396,7 +2393,7 @@
         <v>417.2</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>184</v>
       </c>
@@ -2455,7 +2452,7 @@
         <v>292.10000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>193</v>
       </c>
@@ -2514,7 +2511,7 @@
         <v>296.3</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>242</v>
       </c>
@@ -2573,7 +2570,7 @@
         <v>371.6</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>262.7</v>
       </c>
@@ -2632,7 +2629,7 @@
         <v>333.2</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>246.3</v>
       </c>
@@ -2691,7 +2688,7 @@
         <v>368.8</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>310.8</v>
       </c>
@@ -2750,7 +2747,7 @@
         <v>322.2</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>215</v>
       </c>
@@ -2809,7 +2806,7 @@
         <v>254.4</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>163.9</v>
       </c>
@@ -2868,7 +2865,7 @@
         <v>230.9</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>138.4</v>
       </c>
@@ -2927,7 +2924,7 @@
         <v>208.4</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>188.4</v>
       </c>
@@ -2986,7 +2983,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>178.4</v>
       </c>
@@ -3045,7 +3042,7 @@
         <v>254.6</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>242.9</v>
       </c>
@@ -3104,7 +3101,7 @@
         <v>233.1</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>324.39999999999998</v>
       </c>
@@ -3163,7 +3160,7 @@
         <v>377.7</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>315.5</v>
       </c>
@@ -3222,7 +3219,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>278.89999999999998</v>
       </c>
@@ -3281,7 +3278,7 @@
         <v>331.1</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>303.10000000000002</v>
       </c>
@@ -3340,7 +3337,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>215</v>
       </c>
@@ -3399,7 +3396,7 @@
         <v>440.6</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>221.9</v>
       </c>
@@ -3458,7 +3455,7 @@
         <v>348.1</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>204.1</v>
       </c>
@@ -3517,7 +3514,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>178.8</v>
       </c>
@@ -3576,7 +3573,7 @@
         <v>298.39999999999998</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>228.7</v>
       </c>
